--- a/newOut.xlsx
+++ b/newOut.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Assets" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Traits" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Collections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Collection Primary Assets" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Collection Payment Tokens" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -798,4 +801,897 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>payment_tokens</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>primary_asset_contracts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>banner_image_url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chat_url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>created_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>default_to_fiat</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dev_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dev_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>discord_url</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>external_url</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>featured</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>featured_image_url</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>hidden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>safelist_request_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>is_subject_to_whitelist</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>large_image_url</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>medium_username</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>only_proxied_transfers</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>payout_address</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>require_email</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>short_description</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>slug</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>telegram_url</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>twitter_username</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>instagram_username</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>wiki_url</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>stats.one_day_volume</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>stats.one_day_change</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>stats.one_day_sales</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>stats.one_day_average_price</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>stats.seven_day_volume</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>stats.seven_day_change</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>stats.seven_day_sales</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>stats.seven_day_average_price</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>stats.thirty_day_volume</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>stats.thirty_day_change</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>stats.thirty_day_sales</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stats.thirty_day_average_price</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>stats.total_volume</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>stats.total_sales</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>stats.total_supply</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>stats.count</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>stats.num_owners</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>stats.average_price</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>stats.num_reports</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>stats.market_cap</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>stats.floor_price</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>display_data.card_display_style</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[{'id': 13689077, 'symbol': 'ETH', 'address': '0x0000000000000000000000000000000000000000', 'image_url': 'https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg', 'name': 'Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 12182941, 'symbol': 'DAI', 'address': '0x6b175474e89094c44da98b954eedeac495271d0f', 'image_url': 'https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg', 'name': 'Dai Stablecoin', 'decimals': 18, 'eth_price': 0.00048448908203853623, 'usd_price': 1.0}, {'id': 4645681, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 4403908, 'symbol': 'USDC', 'address': '0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48', 'image_url': 'https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg', 'name': 'USD Coin', 'decimals': 6, 'eth_price': 0.0004842700929734548, 'usd_price': 0.999548}]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[{'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'asset_contract_type': 'non-fungible', 'created_date': '2021-07-16T07:26:50.782759', 'name': 'SupDucks', 'nft_version': '3.0', 'opensea_version': None, 'owner': 56953037, 'schema_name': 'ERC721', 'symbol': 'SD', 'total_supply': '0', 'description': 'The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.', 'external_link': 'https://www.supducks.com/', 'image_url': 'https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120', 'default_to_fiat': False, 'dev_buyer_fee_basis_points': 0, 'dev_seller_fee_basis_points': 300, 'only_proxied_transfers': False, 'opensea_buyer_fee_basis_points': 0, 'opensea_seller_fee_basis_points': 250, 'buyer_fee_basis_points': 0, 'seller_fee_basis_points': 550, 'payout_address': '0xa18a2078d44c93867db711ed80c0e2784bb3c8d3'}]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/x2e2z7u8BvNQkYcMVk5DxCcST7MNlmW1YWP30BLOCOtshz0K2UK09njBvqr-navxoMJUeTzaJOg970EihNXJL4B6R_6KxkwXn7xr=s2500</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-07-16T21:40:10.961766</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://discord.gg/UJCP5y3s7J</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.supducks.com/</t>
+        </is>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300</t>
+        </is>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120</t>
+        </is>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SupDucks</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0xa18a2078d44c93867db711ed80c0e2784bb3c8d3</t>
+        </is>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>supducks</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>realsupducks</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>117.664697575321</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6284829264734667</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>317</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.3711820112786152</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2104.73656844445</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4341</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.4848506262253973</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2104.73656844445</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4341</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.4848506262253973</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2104.73656844445</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4343</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1912</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.4846273470975017</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>4848.506262253974</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>cover</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>asset_contract_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>created_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>nft_version</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_version</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>schema_name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total_supply</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>external_link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>default_to_fiat</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>dev_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>dev_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>only_proxied_transfers</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>payout_address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>non-fungible</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2021-07-16T07:26:50.782759</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SupDucks</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>56953037</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ERC721</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.supducks.com/</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120</t>
+        </is>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>250</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>550</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0xa18a2078d44c93867db711ed80c0e2784bb3c8d3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>decimals</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>eth_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>usd_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>13689077</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ether</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2064.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12182941</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x6b175474e89094c44da98b954eedeac495271d0f</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dai Stablecoin</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0004844890820385362</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4645681</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wrapped Ether</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2064.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4403908</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USD Coin</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0004842700929734548</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.999548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>